--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CABF427-09E0-4E54-A0BD-14F14FBE1A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C4992-54CA-41FA-9188-BC4C1F76F22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C21AA55C-E796-4F8A-9202-23D9572ABF70}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C21AA55C-E796-4F8A-9202-23D9572ABF70}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>编号</t>
   </si>
@@ -100,26 +100,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>MaxScore</t>
-  </si>
-  <si>
-    <t>中等</t>
-  </si>
-  <si>
-    <t>难</t>
-  </si>
-  <si>
-    <t>极难</t>
-  </si>
-  <si>
-    <t>标准</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最易</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -141,6 +121,114 @@
   </si>
   <si>
     <t>[int16]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木剑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIWidth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIHeight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TexturePath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodenSword</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1;0;0;1;0;1;1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤蔓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThornWhip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1;1;1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeatherBag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四格背包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FannyPack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;2;0;0;2;1;2;0;2;1;1;2;0;2;2;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlyAgaric</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;2;0;2;1;2;2;1;2;0;2;0;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +294,13 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -302,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,9 +428,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,6 +442,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,194 +808,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="9" width="15.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="11">
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>45</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" s="10">
+        <v>2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="10"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11">
-        <v>55</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>11</v>
-      </c>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10">
+        <v>4</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="10"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
-        <v>3</v>
-      </c>
-      <c r="B7" s="11">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11">
-        <v>56</v>
-      </c>
-      <c r="D7" s="11">
-        <v>65</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="11">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11">
-        <v>66</v>
-      </c>
-      <c r="D8" s="11">
-        <v>85</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11">
-        <v>86</v>
-      </c>
-      <c r="D9" s="11">
-        <v>100</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
+  <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
+  <conditionalFormatting sqref="D1">
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1 E4">
+  <conditionalFormatting sqref="J1 J4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,E1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,J1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="J2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,E2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,J2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\admin\Desktop\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C4992-54CA-41FA-9188-BC4C1F76F22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E929A8F-A551-4F2A-9473-9F6218F1248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2115" yWindow="3045" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,14 +77,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>编号</t>
   </si>
   <si>
-    <t>区间（最大值）</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -112,18 +109,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ItemGridType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[int16]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1;1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -136,10 +121,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>木剑</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -152,26 +133,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Width</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIWidth</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIHeight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TexturePath</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>WoodenSword</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -228,7 +189,123 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0;2;0;2;1;2;2;1;2;0;2;0;</t>
+    <t>UI宽度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI高度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力消耗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发间隔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;6</t>
+  </si>
+  <si>
+    <t>1;7</t>
+  </si>
+  <si>
+    <t>1;8</t>
+  </si>
+  <si>
+    <t>1;9</t>
+  </si>
+  <si>
+    <t>0;2;0;2;1;2;2;1;2;0;2;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>propType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemGridType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uIWidth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uIHeight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>texturePath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[int32]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,9 +484,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -448,6 +522,12 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,314 +899,469 @@
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="9" width="15.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
+    <col min="4" max="4" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
+    <col min="10" max="14" width="15.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="L1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>2</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>2</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3</v>
+      </c>
+      <c r="L6" s="9">
+        <v>3</v>
+      </c>
+      <c r="M6" s="9">
+        <v>3</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9">
+        <v>2</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9">
+        <v>2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="9">
+        <v>4</v>
+      </c>
+      <c r="J9" s="9">
+        <v>4</v>
+      </c>
+      <c r="K9" s="9">
+        <v>4</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="9">
+        <v>2</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="9">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="J10" s="9">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="K10" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
-        <v>2</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10">
-        <v>2</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3</v>
-      </c>
-      <c r="G6" s="10">
-        <v>3</v>
-      </c>
-      <c r="H6" s="10">
-        <v>3</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9">
+        <v>2</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10">
-        <v>2</v>
-      </c>
-      <c r="G7" s="10">
-        <v>2</v>
-      </c>
-      <c r="H7" s="10">
-        <v>2</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>2</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="10">
-        <v>4</v>
-      </c>
-      <c r="F9" s="10">
-        <v>4</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10">
-        <v>2</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="10">
-        <v>3</v>
-      </c>
-      <c r="F10" s="10">
-        <v>4</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10">
-        <v>2</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="10"/>
+      <c r="O10" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1136,22 +1371,22 @@
   <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  <conditionalFormatting sqref="D1:I1">
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1 J4">
+  <conditionalFormatting sqref="O1 O4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,J1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,O1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
+  <conditionalFormatting sqref="O2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,J2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,O2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\admin\Desktop\Excel\plan\excel\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E929A8F-A551-4F2A-9473-9F6218F1248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECB9442-6E91-4744-B038-34441266DC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2115" yWindow="3045" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1;1;0;0;1;0;1;1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>藤蔓</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -306,6 +302,10 @@
   </si>
   <si>
     <t>[int32]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1;0;0;1;0;0;1;1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +891,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F16" activeCellId="1" sqref="D6 F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -923,19 +923,19 @@
         <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="I1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>13</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>1</v>
@@ -967,22 +967,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>2</v>
@@ -1014,19 +1014,19 @@
         <v>7</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>4</v>
@@ -1053,43 +1053,43 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="O4" s="8"/>
     </row>
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="9">
         <v>1</v>
@@ -1143,13 +1143,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E6" s="10">
         <v>2</v>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="9">
         <v>3</v>
@@ -1179,7 +1179,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6" s="10"/>
     </row>
@@ -1188,43 +1188,43 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9">
+        <v>2</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="9">
-        <v>2</v>
-      </c>
-      <c r="J7" s="9">
-        <v>2</v>
-      </c>
-      <c r="K7" s="9">
-        <v>2</v>
-      </c>
-      <c r="L7" s="9">
-        <v>2</v>
-      </c>
-      <c r="M7" s="9">
-        <v>2</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="O7" s="9"/>
     </row>
@@ -1233,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="9">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8" s="9"/>
     </row>
@@ -1278,13 +1278,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="10">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="9">
         <v>4</v>
@@ -1314,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O9" s="9"/>
     </row>
@@ -1323,13 +1323,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" s="9">
         <v>3</v>
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="9"/>
     </row>

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECB9442-6E91-4744-B038-34441266DC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F93B651-B7AA-4979-BDA1-56BDA8EBBCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>编号</t>
   </si>
@@ -225,13 +225,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1;5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;6</t>
-  </si>
-  <si>
     <t>1;7</t>
   </si>
   <si>
@@ -306,6 +299,18 @@
   </si>
   <si>
     <t>1;1;0;0;1;0;0;1;1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +896,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" activeCellId="1" sqref="D6 F16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1014,19 +1019,19 @@
         <v>7</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>4</v>
@@ -1053,43 +1058,43 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="K4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="O4" s="8"/>
     </row>
@@ -1110,16 +1115,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="10">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G5" s="10">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I5" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="9">
         <v>1</v>
@@ -1149,22 +1154,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F6" s="10">
+        <v>80</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="10">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="I6" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J6" s="9">
         <v>3</v>
@@ -1206,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
@@ -1251,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
@@ -1287,19 +1292,19 @@
         <v>25</v>
       </c>
       <c r="E9" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G9" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I9" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="9">
         <v>4</v>
@@ -1329,19 +1334,19 @@
         <v>2</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
       </c>
       <c r="F10" s="10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G10" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I10" s="9">
         <v>3</v>

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F93B651-B7AA-4979-BDA1-56BDA8EBBCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F2E15-9E14-4A41-8C79-F30D8B861A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,20 +38,17 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-Bag = 0,
-Weapon = 1,
-Fruits = 2,</t>
+          <t>Bag = 0,
+MeleeWeapon = 1,
+RangedWeapon = 2,
+Food = 3,
+Accessory = 4,               //配饰
+GemStone = 5,                //宝石
+Pet = 6,                     //宠物
+Potion = 7,                  //药水
+Card = 8,                    //卡牌
+Shield = 9,                  //盾牌
+Glove = 10,                  //手套</t>
         </r>
       </text>
     </comment>
@@ -77,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>编号</t>
   </si>
@@ -311,6 +308,54 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星目标类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TarStarType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星目标类型除外</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExTarStarId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铲铲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shovel_item</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨刀石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;1;2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whetstone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,13 +399,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -479,7 +517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,10 +560,10 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,6 +571,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -910,11 +954,11 @@
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
-    <col min="10" max="14" width="15.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
+    <col min="10" max="16" width="15.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -949,19 +993,25 @@
         <v>14</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -992,23 +1042,29 @@
       <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>2</v>
+      <c r="K2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1042,18 +1098,24 @@
       <c r="K3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1088,17 +1150,23 @@
         <v>51</v>
       </c>
       <c r="L4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1133,17 +1201,23 @@
         <v>2</v>
       </c>
       <c r="L5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="9">
         <v>1</v>
       </c>
-      <c r="M5" s="9">
-        <v>2</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="9">
+        <v>2</v>
+      </c>
+      <c r="P5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="10"/>
+      <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1178,17 +1252,23 @@
         <v>3</v>
       </c>
       <c r="L6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="9">
         <v>3</v>
       </c>
-      <c r="M6" s="9">
+      <c r="O6" s="9">
         <v>3</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="P6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="10"/>
+      <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1205,10 +1285,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>38</v>
@@ -1223,17 +1303,23 @@
         <v>2</v>
       </c>
       <c r="L7" s="9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M7" s="9">
-        <v>2</v>
-      </c>
-      <c r="N7" s="10" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="9">
+        <v>2</v>
+      </c>
+      <c r="O7" s="9">
+        <v>2</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -1250,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>39</v>
@@ -1268,17 +1354,23 @@
         <v>1</v>
       </c>
       <c r="L8" s="9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="9">
+        <v>2</v>
+      </c>
+      <c r="O8" s="9">
         <v>1</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="P8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1286,7 +1378,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>25</v>
@@ -1313,17 +1405,23 @@
         <v>4</v>
       </c>
       <c r="L9" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" s="9">
-        <v>2</v>
-      </c>
-      <c r="N9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="9">
+        <v>2</v>
+      </c>
+      <c r="O9" s="9">
+        <v>2</v>
+      </c>
+      <c r="P9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="9"/>
+      <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -1331,7 +1429,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>41</v>
@@ -1358,15 +1456,126 @@
         <v>4</v>
       </c>
       <c r="L10" s="9">
+        <v>3</v>
+      </c>
+      <c r="M10" s="9">
+        <v>6</v>
+      </c>
+      <c r="N10" s="9">
         <v>1</v>
       </c>
-      <c r="M10" s="9">
-        <v>2</v>
-      </c>
-      <c r="N10" s="10" t="s">
+      <c r="O10" s="9">
+        <v>2</v>
+      </c>
+      <c r="P10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>95</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1379,19 +1588,19 @@
   <conditionalFormatting sqref="D1:I1">
     <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1 O4">
+  <conditionalFormatting sqref="Q1 Q4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,O1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,Q1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
+  <conditionalFormatting sqref="Q2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,O2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,Q2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F2E15-9E14-4A41-8C79-F30D8B861A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F331A5-F8AD-4C26-891C-3A77B9415BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -69,12 +69,52 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{0CAFA225-C614-4D1D-8F41-9BFBC83B58F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.战斗开始时
+2.攻击时
+3.击中对手时
+4.攻击未命中时
+5.对手未命中时
+6.对手眩晕时
+7.对手攻击命中时(近战)
+8.每场战斗触发一次
+9.狂战士之怒期间
+10.星的t物品激活n次
+11.每次获得n层b时
+12.每n秒
+13.每有一层增益效果
+14.生命值低于%时
+15.进入商店时</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>编号</t>
   </si>
@@ -327,18 +367,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>铲铲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4;7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shovel_item</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>磨刀石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -356,6 +384,50 @@
   </si>
   <si>
     <t>Whetstone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫把</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodenBuckler</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +496,19 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -517,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +662,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,11 +1042,11 @@
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
-    <col min="10" max="16" width="15.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1"/>
+    <col min="10" max="17" width="15.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -999,19 +1087,22 @@
         <v>63</v>
       </c>
       <c r="N1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1051,8 +1142,8 @@
       <c r="M2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>2</v>
+      <c r="N2" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>2</v>
@@ -1060,11 +1151,14 @@
       <c r="P2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1104,18 +1198,21 @@
       <c r="M3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>4</v>
+      <c r="N3" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1156,17 +1253,20 @@
         <v>64</v>
       </c>
       <c r="N4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1207,17 +1307,20 @@
         <v>-1</v>
       </c>
       <c r="N5" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" s="9">
-        <v>2</v>
-      </c>
-      <c r="P5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1257,18 +1360,21 @@
       <c r="M6" s="9">
         <v>-1</v>
       </c>
-      <c r="N6" s="9">
-        <v>3</v>
+      <c r="N6" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="O6" s="9">
         <v>3</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1309,17 +1415,20 @@
         <v>-1</v>
       </c>
       <c r="N7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7" s="9">
         <v>2</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -1360,17 +1469,20 @@
         <v>-1</v>
       </c>
       <c r="N8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" s="9">
-        <v>1</v>
-      </c>
-      <c r="P8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1411,17 +1523,20 @@
         <v>5</v>
       </c>
       <c r="N9" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O9" s="9">
         <v>2</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -1461,23 +1576,26 @@
       <c r="M10" s="9">
         <v>6</v>
       </c>
-      <c r="N10" s="9">
-        <v>1</v>
+      <c r="N10" s="10">
+        <v>12</v>
       </c>
       <c r="O10" s="9">
-        <v>2</v>
-      </c>
-      <c r="P10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -1492,13 +1610,13 @@
         <v>95</v>
       </c>
       <c r="G11" s="1">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I11" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1512,28 +1630,31 @@
       <c r="M11" s="1">
         <v>-1</v>
       </c>
-      <c r="N11" s="1">
-        <v>1</v>
+      <c r="N11" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
         <v>4</v>
       </c>
-      <c r="P11" s="19" t="s">
-        <v>67</v>
+      <c r="Q11" s="19" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1545,7 +1666,7 @@
         <v>-1</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
@@ -1557,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M12" s="1">
         <v>-1</v>
@@ -1566,16 +1687,123 @@
         <v>1</v>
       </c>
       <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
         <v>3</v>
       </c>
-      <c r="P12" s="19" t="s">
-        <v>72</v>
+      <c r="Q12" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
+      <c r="B13" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="19">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="51" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>7</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R22" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1588,19 +1816,19 @@
   <conditionalFormatting sqref="D1:I1">
     <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1 Q4">
+  <conditionalFormatting sqref="R1 R4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,Q1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,R1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
+  <conditionalFormatting sqref="R2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,Q2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,R2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F331A5-F8AD-4C26-891C-3A77B9415BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55DA6F0-D889-4078-ACA6-EB5E3F82DC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{0CAFA225-C614-4D1D-8F41-9BFBC83B58F9}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{FDC46289-A1DC-4939-B0BB-8C8D9AB5260C}">
       <text>
         <r>
           <rPr>
@@ -91,21 +91,215 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1.战斗开始时
-2.攻击时
-3.击中对手时
-4.攻击未命中时
-5.对手未命中时
-6.对手眩晕时
-7.对手攻击命中时(近战)
-8.每场战斗触发一次
-9.狂战士之怒期间
-10.星的t物品激活n次
-11.每次获得n层b时
-12.每n秒
-13.每有一层增益效果
-14.生命值低于%时
-15.进入商店时</t>
+1.自身物品 
+2.玩家自己
+2.对手玩家
+4.星物品
+5.方块物品
+6.本场游戏 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{0CAFA225-C614-4D1D-8F41-9BFBC83B58F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.攻击时 
+2.未命中时 
+3.命中时 
+4.激活时 
+5.获得n层b时 
+6.生命值低于n时 
+7.拥有n层时 
+8.战斗开始 
+9.战斗一次 
+10.每n秒 
+11.进入xx状态
+12.进入商店
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{EF620122-A4D7-4C94-BAA6-ECC7EE105EB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+类型 1 2 3 4 
+1.概率
+类型5
+[3,1] 三层 充能 [-1,1] n 层充能
+类型6
+1.百分比 50
+类型7 
+[3,1] 同类型5 
+类型8
+gameState
+类型9
+n 次数
+类型10 
+n 秒
+类型11
+状态Id
+类型12
+概率
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{6BD2AD59-6F97-489A-853A-ED802C966964}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.自身物品 
+2.玩家自己
+2.对手玩家
+4.星物品
+5.方块物品
+6.本场游戏 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{058CAFE1-5C50-4374-AE73-DE65A2AB08C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.造成伤害  
+2.改变属性 
+3.施加类   
+4.激活类 
+5.特殊类  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{4368F5C5-B5BA-4481-B605-248CF86F8D6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+类型1.造成伤害
+1.武器伤害
+类型2.改变属性
+1.造成伤害+X
+2.下次攻击造成伤害+X
+3.触发间隔
+4.命中率
+施加/移除类
+buff id  -3 (移除3层幸运) +1 增加一层狂热
+4.激活类
+1.激活次数
+5.特殊类
+1.无视护甲
+2.下次攻击计算两次
+buffID
+1.充能
+2.狂热
+3.幸运
+4.魔法
+5.回复
+6.尖刺
+7.吸血
+8.致盲
+9.冰冷
+10.中毒
+11.护盾
+12.治疗
+13.疲惫
+14.无敌
+15.无效 : 放置获得增益
+16.反弹
+17.复活
+19.抵挡:放置获得减益
+20.眩晕:暂停所有物品冷却时间
+</t>
         </r>
       </text>
     </comment>
@@ -114,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>编号</t>
   </si>
@@ -387,18 +581,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>触发时机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>timing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>扫把</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -428,6 +610,62 @@
   </si>
   <si>
     <t>WoodenBuckler</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>listenTarget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectTarget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>listenType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>listenValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;-1;6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1025,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1043,10 +1281,12 @@
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
     <col min="10" max="17" width="15.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1"/>
+    <col min="18" max="19" width="14.875" style="1" customWidth="1"/>
+    <col min="20" max="22" width="15.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1087,22 +1327,37 @@
         <v>63</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="O1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1145,20 +1400,35 @@
       <c r="N2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="O2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1201,18 +1471,33 @@
       <c r="N3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="V3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1253,20 +1538,35 @@
         <v>64</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="O4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="8"/>
+      <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1307,20 +1607,37 @@
         <v>-1</v>
       </c>
       <c r="N5" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
+        <v>1</v>
+      </c>
+      <c r="S5" s="9">
+        <v>1</v>
+      </c>
+      <c r="T5" s="9">
+        <v>1</v>
+      </c>
+      <c r="U5" s="9">
+        <v>2</v>
+      </c>
+      <c r="V5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="10"/>
+      <c r="W5" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1361,20 +1678,37 @@
         <v>-1</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="9">
+        <v>58</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="10">
+        <v>1</v>
+      </c>
+      <c r="S6" s="10">
+        <v>1</v>
+      </c>
+      <c r="T6" s="9">
         <v>3</v>
       </c>
-      <c r="P6" s="9">
+      <c r="U6" s="9">
         <v>3</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="V6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="10"/>
+      <c r="W6" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1414,21 +1748,28 @@
       <c r="M7" s="9">
         <v>-1</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="O7" s="9">
-        <v>2</v>
-      </c>
-      <c r="P7" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="10" t="s">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9">
+        <v>2</v>
+      </c>
+      <c r="U7" s="9">
+        <v>2</v>
+      </c>
+      <c r="V7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="9"/>
+      <c r="W7" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -1468,21 +1809,28 @@
       <c r="M8" s="9">
         <v>-1</v>
       </c>
-      <c r="N8" s="9">
-        <v>1</v>
-      </c>
+      <c r="N8" s="9"/>
       <c r="O8" s="9">
-        <v>2</v>
-      </c>
-      <c r="P8" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9">
+        <v>2</v>
+      </c>
+      <c r="U8" s="9">
+        <v>1</v>
+      </c>
+      <c r="V8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="9"/>
+      <c r="W8" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1522,21 +1870,28 @@
       <c r="M9" s="9">
         <v>5</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9">
         <v>12</v>
       </c>
-      <c r="O9" s="9">
-        <v>2</v>
-      </c>
-      <c r="P9" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="10" t="s">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9">
+        <v>2</v>
+      </c>
+      <c r="U9" s="9">
+        <v>2</v>
+      </c>
+      <c r="V9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="9"/>
+      <c r="W9" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -1576,26 +1931,33 @@
       <c r="M10" s="9">
         <v>6</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="10"/>
+      <c r="O10" s="10">
         <v>12</v>
       </c>
-      <c r="O10" s="9">
-        <v>1</v>
-      </c>
-      <c r="P10" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="10" t="s">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="9">
+        <v>1</v>
+      </c>
+      <c r="U10" s="9">
+        <v>2</v>
+      </c>
+      <c r="V10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="9"/>
+      <c r="W10" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -1613,7 +1975,7 @@
         <v>1.7</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I11" s="1">
         <v>4</v>
@@ -1630,20 +1992,28 @@
       <c r="M11" s="1">
         <v>-1</v>
       </c>
-      <c r="N11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="N11" s="19"/>
+      <c r="O11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
         <v>4</v>
       </c>
-      <c r="Q11" s="19" t="s">
-        <v>76</v>
+      <c r="V11" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="W11" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1683,25 +2053,28 @@
       <c r="M12" s="1">
         <v>-1</v>
       </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
       <c r="O12" s="1">
         <v>1</v>
       </c>
-      <c r="P12" s="1">
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
         <v>3</v>
       </c>
-      <c r="Q12" s="19" t="s">
+      <c r="V12" s="19" t="s">
         <v>69</v>
       </c>
+      <c r="W12" s="19" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -1736,25 +2109,33 @@
       <c r="M13" s="1">
         <v>-1</v>
       </c>
-      <c r="N13" s="19">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="19" t="s">
-        <v>78</v>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19">
+        <v>1</v>
+      </c>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W13" s="19" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="51" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="51" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1">
         <v>9</v>
@@ -1789,21 +2170,24 @@
       <c r="M14" s="1">
         <v>-1</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>7</v>
       </c>
-      <c r="O14" s="1">
-        <v>2</v>
-      </c>
-      <c r="P14" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>80</v>
+      <c r="T14" s="1">
+        <v>2</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2</v>
+      </c>
+      <c r="V14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W14" s="19" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="22" spans="18:18" x14ac:dyDescent="0.15">
-      <c r="R22" s="19"/>
+    <row r="22" spans="23:23" x14ac:dyDescent="0.15">
+      <c r="W22" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1816,19 +2200,19 @@
   <conditionalFormatting sqref="D1:I1">
     <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1 R4">
+  <conditionalFormatting sqref="W1 W4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,R1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,W1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2">
+  <conditionalFormatting sqref="W2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,R2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,W2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55DA6F0-D889-4078-ACA6-EB5E3F82DC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7414AE-1DD7-4337-9C5A-2AF142890EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
           <t xml:space="preserve">
 1.自身物品 
 2.玩家自己
-2.对手玩家
+3.对手玩家
 4.星物品
 5.方块物品
 6.本场游戏 </t>
@@ -149,7 +149,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>admin:</t>
+          <t>admin:
+根据前一个监听类型来设置不同的值</t>
         </r>
         <r>
           <rPr>
@@ -206,7 +207,7 @@
           <t xml:space="preserve">
 1.自身物品 
 2.玩家自己
-2.对手玩家
+3.对手玩家
 4.星物品
 5.方块物品
 6.本场游戏 </t>
@@ -308,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
   <si>
     <t>编号</t>
   </si>
@@ -665,7 +666,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>100;-1;6</t>
+    <t>效果描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectDes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手攻击落空:下一次攻击获得+2点伤害加成。 击中对手:将有35%的几率施加1层Blind。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加4格背包槽位。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时:Star的武器攻击力+1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击(近战):将有35%的几率减免4点伤害并移除对手0.3点耐力。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5s:治愈4点生命和1点耐力。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5s:施加1层Poison。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中对手时:获得1层Spikes。每层Spikes造成+1额外伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加2格背包槽位。 包内的物品触发快10%。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100|-1;6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -684,12 +733,14 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -840,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,6 +954,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1282,11 +1339,11 @@
     <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
     <col min="10" max="17" width="15.5" style="1" customWidth="1"/>
     <col min="18" max="19" width="14.875" style="1" customWidth="1"/>
-    <col min="20" max="22" width="15.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="1"/>
+    <col min="20" max="23" width="15.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1359,7 @@
       <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="12" t="s">
@@ -1323,7 +1380,7 @@
       <c r="L1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="21" t="s">
         <v>63</v>
       </c>
       <c r="N1" s="14" t="s">
@@ -1350,14 +1407,17 @@
       <c r="U1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1424,11 +1484,14 @@
       <c r="V2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1474,8 +1537,8 @@
       <c r="O3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>56</v>
+      <c r="P3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="Q3" s="13" t="s">
         <v>56</v>
@@ -1495,9 +1558,12 @@
       <c r="V3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="7"/>
+      <c r="W3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="7"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1543,7 +1609,7 @@
       <c r="O4" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="22" t="s">
         <v>89</v>
       </c>
       <c r="Q4" s="15" t="s">
@@ -1561,12 +1627,15 @@
       <c r="U4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="W4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1630,14 +1699,15 @@
       <c r="U5" s="9">
         <v>2</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="9"/>
+      <c r="W5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="X5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1684,16 +1754,16 @@
         <v>90</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" s="10">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="S6" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T6" s="9">
         <v>3</v>
@@ -1702,13 +1772,16 @@
         <v>3</v>
       </c>
       <c r="V6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="W6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="X6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1763,13 +1836,16 @@
         <v>2</v>
       </c>
       <c r="V7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="W7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="X7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -1824,13 +1900,16 @@
         <v>1</v>
       </c>
       <c r="V8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="W8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="X8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1885,13 +1964,16 @@
         <v>2</v>
       </c>
       <c r="V9" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="W9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="10" t="s">
+      <c r="X9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -1946,13 +2028,16 @@
         <v>2</v>
       </c>
       <c r="V10" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="W10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="X10" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2007,13 +2092,16 @@
         <v>4</v>
       </c>
       <c r="V11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="W11" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="W11" s="19" t="s">
+      <c r="X11" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2063,13 +2151,16 @@
         <v>3</v>
       </c>
       <c r="V12" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="W12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="W12" s="19" t="s">
+      <c r="X12" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2123,14 +2214,14 @@
       <c r="U13" s="1">
         <v>1</v>
       </c>
-      <c r="V13" s="19" t="s">
+      <c r="W13" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="W13" s="19" t="s">
+      <c r="X13" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="51" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="51" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2179,15 +2270,18 @@
       <c r="U14" s="1">
         <v>2</v>
       </c>
-      <c r="V14" s="20" t="s">
+      <c r="V14" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="W14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="W14" s="19" t="s">
+      <c r="X14" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="23:23" x14ac:dyDescent="0.15">
-      <c r="W22" s="19"/>
+    <row r="22" spans="24:24" x14ac:dyDescent="0.15">
+      <c r="X22" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2200,19 +2294,19 @@
   <conditionalFormatting sqref="D1:I1">
     <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1 W4">
+  <conditionalFormatting sqref="X1 X4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,W1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,X1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2">
+  <conditionalFormatting sqref="X2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,W2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,X2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7414AE-1DD7-4337-9C5A-2AF142890EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A06D7D8-D7F2-4C98-A110-E3295635DF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27390" yWindow="1905" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,8 @@
 3.对手玩家
 4.星物品
 5.方块物品
-6.本场游戏 </t>
+6.本场游戏 
+7.包内物品</t>
         </r>
       </text>
     </comment>
@@ -128,9 +129,9 @@
 4.激活时 
 5.获得n层b时 
 6.生命值低于n时 
-7.拥有n层时 
+7.拥有n层b时 
 8.战斗开始 
-9.战斗一次 
+9.战斗触发n次 
 10.每n秒 
 11.进入xx状态
 12.进入商店
@@ -183,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{6BD2AD59-6F97-489A-853A-ED802C966964}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{1DCA3BB7-A19C-41FC-9880-1438EA340F67}">
       <text>
         <r>
           <rPr>
@@ -205,81 +206,6 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1.自身物品 
-2.玩家自己
-3.对手玩家
-4.星物品
-5.方块物品
-6.本场游戏 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{058CAFE1-5C50-4374-AE73-DE65A2AB08C8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.造成伤害  
-2.改变属性 
-3.施加类   
-4.激活类 
-5.特殊类  </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{4368F5C5-B5BA-4481-B605-248CF86F8D6A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-类型1.造成伤害
-1.武器伤害
-类型2.改变属性
-1.造成伤害+X
-2.下次攻击造成伤害+X
-3.触发间隔
-4.命中率
-施加/移除类
-buff id  -3 (移除3层幸运) +1 增加一层狂热
-4.激活类
-1.激活次数
-5.特殊类
-1.无视护甲
-2.下次攻击计算两次
 buffID
 1.充能
 2.狂热
@@ -299,8 +225,7 @@
 16.反弹
 17.复活
 19.抵挡:放置获得减益
-20.眩晕:暂停所有物品冷却时间
-</t>
+20.眩晕:暂停所有物品冷却时间</t>
         </r>
       </text>
     </comment>
@@ -309,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
   <si>
     <t>编号</t>
   </si>
@@ -590,10 +515,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5;3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Broom</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -626,26 +547,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EffectType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectTarget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>监听类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -710,11 +611,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100|-1;6</t>
+    <t>EffectId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;-1;6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;35</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时:获得1层Heat。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时机效果对应关系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectOfListen</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1320,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1338,12 +1271,15 @@
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
     <col min="10" max="17" width="15.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="14.875" style="1" customWidth="1"/>
-    <col min="20" max="23" width="15.5" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="1"/>
+    <col min="18" max="18" width="19.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="59.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1384,40 +1320,37 @@
         <v>63</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="14" t="s">
-        <v>84</v>
+      <c r="Q1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="W1" s="14" t="s">
+      <c r="U1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1466,14 +1399,14 @@
       <c r="P2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="18" t="s">
-        <v>33</v>
+      <c r="S2" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>2</v>
@@ -1484,14 +1417,11 @@
       <c r="V2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1538,32 +1468,29 @@
         <v>56</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="Q3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="R3" s="6" t="s">
         <v>56</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>4</v>
+      <c r="U3" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="V3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1604,38 +1531,35 @@
         <v>64</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q4" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="15" t="s">
-        <v>81</v>
+      <c r="Q4" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="W4" s="15" t="s">
+      <c r="U4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="8"/>
+      <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1676,38 +1600,35 @@
         <v>-1</v>
       </c>
       <c r="N5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P5" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="9">
         <v>1</v>
       </c>
       <c r="T5" s="9">
-        <v>1</v>
-      </c>
-      <c r="U5" s="9">
-        <v>2</v>
-      </c>
-      <c r="V5" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="U5" s="9"/>
+      <c r="V5" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="W5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="X5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1748,40 +1669,37 @@
         <v>-1</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="S6" s="10">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="S6" s="9">
+        <v>3</v>
       </c>
       <c r="T6" s="9">
         <v>3</v>
       </c>
-      <c r="U6" s="9">
-        <v>3</v>
+      <c r="U6" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="X6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1821,31 +1739,38 @@
       <c r="M7" s="9">
         <v>-1</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>2</v>
+      </c>
       <c r="T7" s="9">
         <v>2</v>
       </c>
-      <c r="U7" s="9">
-        <v>2</v>
+      <c r="U7" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="X7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -1885,31 +1810,38 @@
       <c r="M8" s="9">
         <v>-1</v>
       </c>
-      <c r="N8" s="9"/>
+      <c r="N8" s="9">
+        <v>6</v>
+      </c>
       <c r="O8" s="9">
-        <v>1</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="P8" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>3</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1</v>
+      </c>
+      <c r="S8" s="9">
+        <v>2</v>
+      </c>
       <c r="T8" s="9">
-        <v>2</v>
-      </c>
-      <c r="U8" s="9">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="X8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1949,31 +1881,38 @@
       <c r="M9" s="9">
         <v>5</v>
       </c>
-      <c r="N9" s="9"/>
+      <c r="N9" s="9">
+        <v>6</v>
+      </c>
       <c r="O9" s="9">
-        <v>12</v>
-      </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="P9" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="10">
+        <v>2</v>
+      </c>
+      <c r="S9" s="9">
+        <v>2</v>
+      </c>
       <c r="T9" s="9">
         <v>2</v>
       </c>
-      <c r="U9" s="9">
-        <v>2</v>
+      <c r="U9" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="X9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -2013,31 +1952,38 @@
       <c r="M10" s="9">
         <v>6</v>
       </c>
-      <c r="N10" s="10"/>
+      <c r="N10" s="10">
+        <v>6</v>
+      </c>
       <c r="O10" s="10">
-        <v>12</v>
-      </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="P10" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>6</v>
+      </c>
+      <c r="R10" s="10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9">
+        <v>1</v>
+      </c>
       <c r="T10" s="9">
-        <v>1</v>
-      </c>
-      <c r="U10" s="9">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2077,31 +2023,38 @@
       <c r="M11" s="1">
         <v>-1</v>
       </c>
-      <c r="N11" s="19"/>
+      <c r="N11" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="O11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11" s="19">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>4</v>
+      </c>
+      <c r="U11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="V11" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="1">
-        <v>1</v>
-      </c>
-      <c r="U11" s="1">
-        <v>4</v>
-      </c>
-      <c r="V11" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="W11" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="X11" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2141,31 +2094,43 @@
       <c r="M12" s="1">
         <v>-1</v>
       </c>
+      <c r="N12" s="1">
+        <v>4</v>
+      </c>
       <c r="O12" s="1">
+        <v>8</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>9</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
         <v>1</v>
       </c>
       <c r="T12" s="1">
-        <v>1</v>
-      </c>
-      <c r="U12" s="1">
         <v>3</v>
       </c>
+      <c r="U12" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="V12" s="19" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="W12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="X12" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -2200,33 +2165,43 @@
       <c r="M13" s="1">
         <v>-1</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="19">
+        <v>6</v>
+      </c>
       <c r="O13" s="19">
-        <v>1</v>
-      </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>12</v>
+      </c>
+      <c r="R13" s="19">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
       <c r="T13" s="1">
         <v>1</v>
       </c>
-      <c r="U13" s="1">
-        <v>1</v>
+      <c r="U13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="W13" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="X13" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="51" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="51" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1">
         <v>9</v>
@@ -2261,27 +2236,39 @@
       <c r="M14" s="1">
         <v>-1</v>
       </c>
+      <c r="N14" s="1">
+        <v>3</v>
+      </c>
       <c r="O14" s="1">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="P14" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="R14" s="19">
+        <v>2</v>
+      </c>
+      <c r="S14" s="1">
+        <v>2</v>
       </c>
       <c r="T14" s="1">
         <v>2</v>
       </c>
-      <c r="U14" s="1">
-        <v>2</v>
-      </c>
-      <c r="V14" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="W14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="X14" s="19" t="s">
+      <c r="U14" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V14" s="20" t="s">
         <v>76</v>
       </c>
+      <c r="W14" s="19" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="22" spans="24:24" x14ac:dyDescent="0.15">
-      <c r="X22" s="19"/>
+    <row r="22" spans="23:23" x14ac:dyDescent="0.15">
+      <c r="W22" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2294,19 +2281,19 @@
   <conditionalFormatting sqref="D1:I1">
     <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1 X4">
+  <conditionalFormatting sqref="W1 W4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,X1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,W1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2">
+  <conditionalFormatting sqref="W2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,X2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,W2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A06D7D8-D7F2-4C98-A110-E3295635DF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E81CA77-F2EC-4C02-B385-5757CD566FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27390" yWindow="1905" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32355" yWindow="1380" windowWidth="25710" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,122 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{FDC46289-A1DC-4939-B0BB-8C8D9AB5260C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.自身物品 
-2.玩家自己
-3.对手玩家
-4.星物品
-5.方块物品
-6.本场游戏 
-7.包内物品</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{0CAFA225-C614-4D1D-8F41-9BFBC83B58F9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.攻击时 
-2.未命中时 
-3.命中时 
-4.激活时 
-5.获得n层b时 
-6.生命值低于n时 
-7.拥有n层b时 
-8.战斗开始 
-9.战斗触发n次 
-10.每n秒 
-11.进入xx状态
-12.进入商店
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{EF620122-A4D7-4C94-BAA6-ECC7EE105EB3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:
-根据前一个监听类型来设置不同的值</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-类型 1 2 3 4 
-1.概率
-类型5
-[3,1] 三层 充能 [-1,1] n 层充能
-类型6
-1.百分比 50
-类型7 
-[3,1] 同类型5 
-类型8
-gameState
-类型9
-n 次数
-类型10 
-n 秒
-类型11
-状态Id
-类型12
-概率
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{1DCA3BB7-A19C-41FC-9880-1438EA340F67}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{1DCA3BB7-A19C-41FC-9880-1438EA340F67}">
       <text>
         <r>
           <rPr>
@@ -229,12 +114,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{CF4D42DC-B0B5-481A-AAA1-705786EEDC24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+第 i 个时机 对应几个效果
+香蕉
+时机[4] 效果 [4;5] 对应关系为 [2] 就是 香蕉一个时机4 对应两个效果 4 5</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
   <si>
     <t>编号</t>
   </si>
@@ -535,38 +448,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>监听对象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>listenTarget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>效果</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>监听类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>listenType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>监听数值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>listenValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>效果描述</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -607,26 +492,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2;3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EffectId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>100;-1;6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;35</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗开始时:获得1层Heat。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -648,6 +517,21 @@
   </si>
   <si>
     <t>EffectOfListen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时机id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>5;7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,6 +777,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1270,16 +1160,16 @@
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
-    <col min="10" max="17" width="15.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="59.25" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="1"/>
+    <col min="10" max="15" width="15.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="59.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1319,38 +1209,32 @@
       <c r="M1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="S1" s="14" t="s">
+      <c r="P1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="R1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="T1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1390,20 +1274,20 @@
       <c r="M2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>2</v>
@@ -1411,17 +1295,11 @@
       <c r="T2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1464,33 +1342,27 @@
       <c r="N3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="6" t="s">
         <v>56</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="7"/>
+      <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1530,36 +1402,30 @@
       <c r="M4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>81</v>
+      <c r="N4" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="S4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="15" t="s">
         <v>52</v>
       </c>
+      <c r="R4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="T4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="V4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1609,26 +1475,20 @@
         <v>0</v>
       </c>
       <c r="Q5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="9">
-        <v>0</v>
-      </c>
-      <c r="S5" s="9">
-        <v>1</v>
-      </c>
-      <c r="T5" s="9">
-        <v>2</v>
-      </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="U5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1668,38 +1528,32 @@
       <c r="M6" s="9">
         <v>-1</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="P6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="R6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="9">
+      <c r="Q6" s="9">
         <v>3</v>
       </c>
-      <c r="T6" s="9">
+      <c r="R6" s="9">
         <v>3</v>
       </c>
+      <c r="S6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="U6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="W6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1749,28 +1603,22 @@
         <v>0</v>
       </c>
       <c r="Q7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>2</v>
-      </c>
-      <c r="T7" s="9">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -1811,37 +1659,31 @@
         <v>-1</v>
       </c>
       <c r="N8" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O8" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P8" s="9">
         <v>1</v>
       </c>
       <c r="Q8" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8" s="9">
         <v>1</v>
       </c>
-      <c r="S8" s="9">
-        <v>2</v>
-      </c>
-      <c r="T8" s="9">
-        <v>1</v>
+      <c r="S8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="W8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1882,37 +1724,31 @@
         <v>5</v>
       </c>
       <c r="N9" s="9">
-        <v>6</v>
-      </c>
-      <c r="O9" s="9">
-        <v>10</v>
-      </c>
-      <c r="P9" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="R9" s="10">
-        <v>2</v>
-      </c>
-      <c r="S9" s="9">
-        <v>2</v>
-      </c>
-      <c r="T9" s="9">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>2</v>
+      </c>
+      <c r="R9" s="9">
+        <v>2</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="W9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -1952,38 +1788,32 @@
       <c r="M10" s="9">
         <v>6</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
+        <v>5</v>
+      </c>
+      <c r="O10" s="10">
         <v>6</v>
       </c>
-      <c r="O10" s="10">
-        <v>10</v>
-      </c>
       <c r="P10" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>6</v>
-      </c>
-      <c r="R10" s="10">
-        <v>1</v>
-      </c>
-      <c r="S10" s="9">
-        <v>1</v>
-      </c>
-      <c r="T10" s="9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1</v>
+      </c>
+      <c r="R10" s="9">
+        <v>2</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2023,38 +1853,32 @@
       <c r="M11" s="1">
         <v>-1</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="24" t="s">
         <v>98</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="R11" s="19">
-        <v>1</v>
-      </c>
-      <c r="S11" s="1">
-        <v>1</v>
-      </c>
-      <c r="T11" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
         <v>4</v>
       </c>
+      <c r="S11" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="U11" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="V11" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="W11" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2094,38 +1918,32 @@
       <c r="M12" s="1">
         <v>-1</v>
       </c>
-      <c r="N12" s="1">
-        <v>4</v>
+      <c r="N12" s="23">
+        <v>3</v>
       </c>
       <c r="O12" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1">
         <v>3</v>
       </c>
+      <c r="S12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="U12" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="V12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="W12" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2165,38 +1983,32 @@
       <c r="M13" s="1">
         <v>-1</v>
       </c>
-      <c r="N13" s="19">
-        <v>6</v>
+      <c r="N13" s="23">
+        <v>3</v>
       </c>
       <c r="O13" s="19">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P13" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>12</v>
-      </c>
-      <c r="R13" s="19">
-        <v>1</v>
-      </c>
-      <c r="S13" s="1">
-        <v>1</v>
-      </c>
-      <c r="T13" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="V13" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="W13" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="51" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="51" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2236,39 +2048,33 @@
       <c r="M14" s="1">
         <v>-1</v>
       </c>
-      <c r="N14" s="1">
-        <v>3</v>
-      </c>
-      <c r="O14" s="1">
-        <v>3</v>
-      </c>
-      <c r="P14" s="1">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="R14" s="19">
-        <v>2</v>
-      </c>
-      <c r="S14" s="1">
-        <v>2</v>
-      </c>
-      <c r="T14" s="1">
-        <v>2</v>
+      <c r="N14" s="23">
+        <v>6</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="T14" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V14" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="W14" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="23:23" x14ac:dyDescent="0.15">
-      <c r="W22" s="19"/>
+    <row r="22" spans="21:21" x14ac:dyDescent="0.15">
+      <c r="U22" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2281,19 +2087,19 @@
   <conditionalFormatting sqref="D1:I1">
     <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1 W4">
+  <conditionalFormatting sqref="U1 U4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,W1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,U1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2">
+  <conditionalFormatting sqref="U2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,W2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,U2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E81CA77-F2EC-4C02-B385-5757CD566FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C727AB1-CE80-44E5-865C-BE9C222424BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32355" yWindow="1380" windowWidth="25710" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24210" yWindow="1515" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,12 +777,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1853,7 +1847,7 @@
       <c r="M11" s="1">
         <v>-1</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="19" t="s">
         <v>98</v>
       </c>
       <c r="O11" s="19" t="s">
@@ -1918,7 +1912,7 @@
       <c r="M12" s="1">
         <v>-1</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="1">
         <v>3</v>
       </c>
       <c r="O12" s="1">
@@ -1983,7 +1977,7 @@
       <c r="M13" s="1">
         <v>-1</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="1">
         <v>3</v>
       </c>
       <c r="O13" s="19">
@@ -2048,7 +2042,7 @@
       <c r="M14" s="1">
         <v>-1</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="1">
         <v>6</v>
       </c>
       <c r="O14" s="19" t="s">

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C727AB1-CE80-44E5-865C-BE9C222424BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B168E7B-E128-4D42-AB48-D98A5BEA87D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24210" yWindow="1515" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-4275" yWindow="3030" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B168E7B-E128-4D42-AB48-D98A5BEA87D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-4275" yWindow="3030" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,24 +12,35 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C21AA55C-E796-4F8A-9202-23D9572ABF70}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Bag = 0,
@@ -52,14 +57,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>None = 0,
@@ -69,15 +73,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{1DCA3BB7-A19C-41FC-9880-1438EA340F67}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -85,9 +87,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -114,15 +114,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{CF4D42DC-B0B5-481A-AAA1-705786EEDC24}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -130,9 +128,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -147,11 +143,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
   <si>
     <t>编号</t>
   </si>
   <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>物品中的格子类型</t>
+  </si>
+  <si>
+    <t>耐力消耗</t>
+  </si>
+  <si>
+    <t>命中率</t>
+  </si>
+  <si>
+    <t>触发间隔</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>花费</t>
+  </si>
+  <si>
+    <t>宽</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>星目标类型</t>
+  </si>
+  <si>
+    <t>星目标类型除外</t>
+  </si>
+  <si>
+    <t>时机id</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>时机效果对应关系</t>
+  </si>
+  <si>
+    <t>UI宽度</t>
+  </si>
+  <si>
+    <t>UI高度</t>
+  </si>
+  <si>
+    <t>效果描述</t>
+  </si>
+  <si>
+    <t>路径</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -164,382 +217,233 @@
     <t>int16</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>[int32]</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品中的格子类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>name</t>
+  </si>
+  <si>
+    <t>propType</t>
+  </si>
+  <si>
+    <t>itemGridType</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>TarStarType</t>
+  </si>
+  <si>
+    <t>ExTarStarId</t>
+  </si>
+  <si>
+    <t>TimId</t>
+  </si>
+  <si>
+    <t>EffectId</t>
+  </si>
+  <si>
+    <t>EffectOfListen</t>
+  </si>
+  <si>
+    <t>uIWidth</t>
+  </si>
+  <si>
+    <t>uIHeight</t>
+  </si>
+  <si>
+    <t>EffectDes</t>
+  </si>
+  <si>
+    <t>texturePath</t>
+  </si>
+  <si>
+    <t>木剑</t>
   </si>
   <si>
     <t>1;1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>木剑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;3</t>
   </si>
   <si>
     <t>WoodenSword</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>藤蔓</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1;0;0;1;0;0;1;1</t>
+  </si>
+  <si>
+    <t>4;9</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>击中对手时:获得1层Spikes。每层Spikes造成+1额外伤害。</t>
   </si>
   <si>
     <t>ThornWhip</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四格背包</t>
   </si>
   <si>
     <t>1;1;1;1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;7</t>
+  </si>
+  <si>
+    <t>增加4格背包槽位。</t>
   </si>
   <si>
     <t>LeatherBag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>四格背包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>腰包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;8</t>
+  </si>
+  <si>
+    <t>增加2格背包槽位。 包内的物品触发快10%。</t>
+  </si>
+  <si>
+    <t>FannyPack</t>
   </si>
   <si>
     <t>香蕉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;2;0;0;2;1;2;0;2;1;1;2;0;2;2;0</t>
+  </si>
+  <si>
+    <t>1;9</t>
+  </si>
+  <si>
+    <t>4;5</t>
+  </si>
+  <si>
+    <t>每5s:治愈4点生命和1点耐力。</t>
+  </si>
+  <si>
+    <t>Banana</t>
   </si>
   <si>
     <t>蘑菇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FannyPack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;2;0;0;2;1;2;0;2;1;1;2;0;2;2;0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banana</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;2;0;2;1;2;2;1;2;0;2;0</t>
+  </si>
+  <si>
+    <t>1;10</t>
+  </si>
+  <si>
+    <t>每5s:施加1层Poison。</t>
   </si>
   <si>
     <t>FlyAgaric</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI宽度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI高度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力消耗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Both</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发间隔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;7</t>
-  </si>
-  <si>
-    <t>1;8</t>
-  </si>
-  <si>
-    <t>1;9</t>
-  </si>
-  <si>
-    <t>0;2;0;2;1;2;2;1;2;0;2;0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>propType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemGridType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>power</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>interval</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uIWidth</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uIHeight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>texturePath</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[int32]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;1;0;0;1;0;0;1;1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4;9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>星目标类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TarStarType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>星目标类型除外</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExTarStarId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫把</t>
+  </si>
+  <si>
+    <t>2;4</t>
+  </si>
+  <si>
+    <t>5;7</t>
+  </si>
+  <si>
+    <t>8;7</t>
+  </si>
+  <si>
+    <t>对手攻击落空:下一次攻击获得+2点伤害加成。 击中对手:将有35%的几率施加1层Blind。</t>
+  </si>
+  <si>
+    <t>Broom</t>
   </si>
   <si>
     <t>磨刀石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2;1;2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0;0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时:Star的武器攻击力+1。</t>
   </si>
   <si>
     <t>Whetstone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫把</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2;4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Broom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>火</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时:获得1层Heat。</t>
   </si>
   <si>
     <t>Flame</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>木盾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;11</t>
+  </si>
+  <si>
+    <t>受到攻击(近战):将有35%的几率减免4点伤害并移除对手0.3点耐力。</t>
   </si>
   <si>
     <t>WoodenBuckler</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectDes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对手攻击落空:下一次攻击获得+2点伤害加成。 击中对手:将有35%的几率施加1层Blind。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加4格背包槽位。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时:Star的武器攻击力+1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到攻击(近战):将有35%的几率减免4点伤害并移除对手0.3点耐力。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每5s:治愈4点生命和1点耐力。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每5s:施加1层Poison。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中对手时:获得1层Spikes。每层Spikes造成+1额外伤害。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加2格背包槽位。 包内的物品触发快10%。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时:获得1层Heat。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4;5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8;7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10;11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时机效果对应关系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectOfListen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时机id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2</t>
-  </si>
-  <si>
-    <t>5;7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,74 +454,184 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,13 +652,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92CDDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,13 +688,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,12 +790,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9BBB59"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -702,13 +902,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,71 +1160,108 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -797,54 +1276,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1131,24 +1567,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
@@ -1163,274 +1599,274 @@
     <col min="21" max="21" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="14"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="K4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="7"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -1441,8 +1877,8 @@
       <c r="G5" s="10">
         <v>1.4</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>58</v>
+      <c r="H5" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="I5" s="9">
         <v>3</v>
@@ -1476,36 +1912,36 @@
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="10" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21">
       <c r="A6" s="9">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6" s="10">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F6" s="10">
         <v>80</v>
       </c>
       <c r="G6" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>59</v>
+        <v>2.2</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="I6" s="9">
         <v>8</v>
@@ -1523,13 +1959,13 @@
         <v>-1</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="9">
         <v>3</v>
@@ -1538,27 +1974,27 @@
         <v>3</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21">
       <c r="A7" s="9">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -1569,8 +2005,8 @@
       <c r="G7" s="10">
         <v>-1</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>38</v>
+      <c r="H7" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
@@ -1603,27 +2039,27 @@
         <v>2</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21">
       <c r="A8" s="9">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C8" s="9">
         <v>0</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -1634,8 +2070,8 @@
       <c r="G8" s="10">
         <v>-1</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>39</v>
+      <c r="H8" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
@@ -1668,27 +2104,27 @@
         <v>1</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21">
       <c r="A9" s="9">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C9" s="9">
         <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E9" s="10">
         <v>0</v>
@@ -1699,8 +2135,8 @@
       <c r="G9" s="10">
         <v>5</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>40</v>
+      <c r="H9" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="I9" s="9">
         <v>3</v>
@@ -1721,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P9" s="10">
         <v>2</v>
@@ -1733,27 +2169,27 @@
         <v>2</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21">
       <c r="A10" s="9">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="C10" s="9">
         <v>3</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -1764,8 +2200,8 @@
       <c r="G10" s="10">
         <v>5</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>55</v>
+      <c r="H10" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="I10" s="9">
         <v>3</v>
@@ -1783,7 +2219,7 @@
         <v>6</v>
       </c>
       <c r="N10" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O10" s="10">
         <v>6</v>
@@ -1798,27 +2234,27 @@
         <v>2</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>70</v>
+      <c r="B11" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>18</v>
+      <c r="D11" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="E11" s="1">
         <v>1.7</v>
@@ -1829,8 +2265,8 @@
       <c r="G11" s="1">
         <v>1.7</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>71</v>
+      <c r="H11" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="I11" s="1">
         <v>4</v>
@@ -1847,14 +2283,14 @@
       <c r="M11" s="1">
         <v>-1</v>
       </c>
-      <c r="N11" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>9</v>
+      <c r="N11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="Q11" s="1">
         <v>1</v>
@@ -1862,28 +2298,28 @@
       <c r="R11" s="1">
         <v>4</v>
       </c>
-      <c r="S11" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="T11" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="U11" s="19" t="s">
-        <v>70</v>
+      <c r="S11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>65</v>
+      <c r="B12" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>66</v>
+      <c r="D12" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1894,8 +2330,8 @@
       <c r="G12" s="1">
         <v>-1</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>67</v>
+      <c r="H12" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
@@ -1906,8 +2342,8 @@
       <c r="K12" s="1">
         <v>3</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>68</v>
+      <c r="L12" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="M12" s="1">
         <v>-1</v>
@@ -1927,27 +2363,27 @@
       <c r="R12" s="1">
         <v>3</v>
       </c>
-      <c r="S12" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>65</v>
+      <c r="S12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>73</v>
+      <c r="B13" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" s="1">
@@ -1959,8 +2395,8 @@
       <c r="G13" s="1">
         <v>-1</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>67</v>
+      <c r="H13" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="I13" s="1">
         <v>3</v>
@@ -1980,10 +2416,10 @@
       <c r="N13" s="1">
         <v>3</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="12">
         <v>12</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="12">
         <v>1</v>
       </c>
       <c r="Q13" s="1">
@@ -1992,28 +2428,28 @@
       <c r="R13" s="1">
         <v>1</v>
       </c>
-      <c r="S13" s="19" t="s">
+      <c r="S13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="T13" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="U13" s="19" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="14" spans="1:21" ht="51" x14ac:dyDescent="0.15">
+    <row r="14" ht="51" spans="1:21">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>75</v>
+      <c r="B14" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>18</v>
+      <c r="D14" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2024,8 +2460,8 @@
       <c r="G14" s="1">
         <v>-1</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>67</v>
+      <c r="H14" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="I14" s="1">
         <v>4</v>
@@ -2045,10 +2481,10 @@
       <c r="N14" s="1">
         <v>6</v>
       </c>
-      <c r="O14" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="P14" s="19">
+      <c r="O14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="12">
         <v>2</v>
       </c>
       <c r="Q14" s="1">
@@ -2057,76 +2493,82 @@
       <c r="R14" s="1">
         <v>2</v>
       </c>
-      <c r="S14" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="U14" s="19" t="s">
-        <v>75</v>
+      <c r="S14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="22" spans="21:21" x14ac:dyDescent="0.15">
-      <c r="U22" s="19"/>
+    <row r="22" spans="21:21">
+      <c r="U22" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:I1">
-    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>COUNTIF($A:$A,U2)&gt;1</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1 U4">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>COUNTIF($A:$A,U1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,U2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -443,7 +443,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,13 +461,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
@@ -631,7 +624,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,12 +747,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -784,12 +771,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -845,18 +826,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,82 +989,88 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1104,10 +1079,10 @@
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,10 +1091,10 @@
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1128,25 +1103,19 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,13 +1150,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,7 +1165,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1575,8 +1544,8 @@
   <sheetPr/>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2089,7 +2058,7 @@
         <v>-1</v>
       </c>
       <c r="N8" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O8" s="9">
         <v>3</v>

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -1545,7 +1545,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9053B747-5D40-4705-936F-B25275E323CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,35 +18,23 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Bag = 0,
@@ -57,13 +51,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>None = 0,
@@ -73,13 +68,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -88,6 +84,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -114,13 +111,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -129,6 +127,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -406,44 +405,41 @@
     <t>0;0</t>
   </si>
   <si>
+    <t>Whetstone</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>Flame</t>
+  </si>
+  <si>
+    <t>木盾</t>
+  </si>
+  <si>
+    <t>10;11</t>
+  </si>
+  <si>
+    <t>WoodenBuckler</t>
+  </si>
+  <si>
+    <t>受到攻击(近战):将有35%的几率减免4点伤害并移除对手0.3点耐力。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时:获得1层Heat。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>战斗开始时:Star的武器攻击力+1。</t>
-  </si>
-  <si>
-    <t>Whetstone</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>战斗开始时:获得1层Heat。</t>
-  </si>
-  <si>
-    <t>Flame</t>
-  </si>
-  <si>
-    <t>木盾</t>
-  </si>
-  <si>
-    <t>10;11</t>
-  </si>
-  <si>
-    <t>受到攻击(近战):将有35%的几率减免4点伤害并移除对手0.3点耐力。</t>
-  </si>
-  <si>
-    <t>WoodenBuckler</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,177 +450,52 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,7 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,174 +552,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -871,255 +580,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,14 +617,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1168,69 +629,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1245,11 +651,54 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1536,19 +985,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:U22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
@@ -1568,7 +1017,7 @@
     <col min="21" max="21" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1694,11 +1143,11 @@
       <c r="T2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -1759,9 +1208,9 @@
       <c r="T3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="14"/>
+      <c r="U3" s="12"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>28</v>
       </c>
@@ -1824,29 +1273,29 @@
       </c>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
         <v>90</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>1.4</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I5" s="9">
@@ -1880,36 +1329,36 @@
         <v>2</v>
       </c>
       <c r="S5" s="9"/>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="10">
-        <v>2.2</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E6" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F6" s="9">
         <v>80</v>
       </c>
-      <c r="G6" s="10">
-        <v>2.2</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>54</v>
       </c>
       <c r="I6" s="9">
@@ -1930,10 +1379,10 @@
       <c r="N6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="9" t="s">
         <v>49</v>
       </c>
       <c r="Q6" s="9">
@@ -1942,39 +1391,39 @@
       <c r="R6" s="9">
         <v>3</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>60</v>
       </c>
       <c r="I7" s="9">
@@ -2007,39 +1456,39 @@
       <c r="R7" s="9">
         <v>2</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="U7" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="9">
         <v>0</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="9">
@@ -2072,39 +1521,39 @@
       <c r="R8" s="9">
         <v>1</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="9">
         <v>3</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>0</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>100</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>5</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>69</v>
       </c>
       <c r="I9" s="9">
@@ -2125,10 +1574,10 @@
       <c r="N9" s="9">
         <v>4</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>2</v>
       </c>
       <c r="Q9" s="9">
@@ -2137,39 +1586,39 @@
       <c r="R9" s="9">
         <v>2</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="T9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="U9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C10" s="9">
         <v>3</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
         <v>100</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>5</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>75</v>
       </c>
       <c r="I10" s="9">
@@ -2190,10 +1639,10 @@
       <c r="N10" s="9">
         <v>4</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <v>6</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="9">
         <v>1</v>
       </c>
       <c r="Q10" s="9">
@@ -2202,27 +1651,27 @@
       <c r="R10" s="9">
         <v>2</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E11" s="1">
@@ -2234,7 +1683,7 @@
       <c r="G11" s="1">
         <v>1.7</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I11" s="1">
@@ -2252,13 +1701,13 @@
       <c r="M11" s="1">
         <v>-1</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q11" s="1">
@@ -2267,27 +1716,27 @@
       <c r="R11" s="1">
         <v>4</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="S11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="T11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U11" s="12" t="s">
+      <c r="U11" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="1">
@@ -2299,7 +1748,7 @@
       <c r="G12" s="1">
         <v>-1</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I12" s="1">
@@ -2311,7 +1760,7 @@
       <c r="K12" s="1">
         <v>3</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M12" s="1">
@@ -2332,27 +1781,27 @@
       <c r="R12" s="1">
         <v>3</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="S12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="U12" s="12" t="s">
+      <c r="U12" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>89</v>
+      <c r="B13" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1">
@@ -2364,7 +1813,7 @@
       <c r="G13" s="1">
         <v>-1</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I13" s="1">
@@ -2385,10 +1834,10 @@
       <c r="N13" s="1">
         <v>3</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="1">
         <v>12</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="1">
         <v>1</v>
       </c>
       <c r="Q13" s="1">
@@ -2397,27 +1846,27 @@
       <c r="R13" s="1">
         <v>1</v>
       </c>
-      <c r="S13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="U13" s="12" t="s">
+      <c r="S13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="U13" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="14" ht="51" spans="1:21">
+    <row r="14" spans="1:21" ht="51" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>92</v>
+      <c r="B14" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="1">
@@ -2429,7 +1878,7 @@
       <c r="G14" s="1">
         <v>-1</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I14" s="1">
@@ -2450,94 +1899,85 @@
       <c r="N14" s="1">
         <v>6</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2</v>
+      </c>
+      <c r="S14" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>2</v>
-      </c>
-      <c r="R14" s="1">
-        <v>2</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="T14" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="U14" s="12" t="s">
+      <c r="T14" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="21:21">
-      <c r="U22" s="12"/>
+      <c r="U14" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:I1">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1 U4">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>COUNTIF($A:$A,U1)&gt;1</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF($A:$A,U2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1 U4">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,U1)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9053B747-5D40-4705-936F-B25275E323CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAEA80E-977D-4503-85E8-7A634C1C37DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TablePropItem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAEA80E-977D-4503-85E8-7A634C1C37DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB04C79-4585-431B-B821-2BA4170D3EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30315" yWindow="1665" windowWidth="20010" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>编号</t>
   </si>
@@ -432,6 +432,25 @@
   </si>
   <si>
     <t>战斗开始时:Star的武器攻击力+1。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧头</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1;1;0;1;0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中对手时:获得+1伤害加成。</t>
+  </si>
+  <si>
+    <t>Axe</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +512,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2F1C13"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -586,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,6 +656,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1919,6 +1947,71 @@
       </c>
       <c r="U14" s="1" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="1">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>3</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
